--- a/iris-test-106.xlsx
+++ b/iris-test-106.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\GIT REPOS\MyFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA5637E-9250-42C6-9930-DA76E3E3C062}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1108B48-37A2-4A5A-AE6F-E1D35FC33CE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11565" xr2:uid="{10D0F3C7-D4BE-4974-BA33-F43865671231}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="911">
   <si>
     <t>rownum</t>
   </si>
@@ -2466,6 +2466,318 @@
   </si>
   <si>
     <t>0.9787661586280729</t>
+  </si>
+  <si>
+    <t>scores_integration</t>
+  </si>
+  <si>
+    <t>0.01129271</t>
+  </si>
+  <si>
+    <t>0.008881781</t>
+  </si>
+  <si>
+    <t>0.086709901</t>
+  </si>
+  <si>
+    <t>0.007408328</t>
+  </si>
+  <si>
+    <t>0.02064242</t>
+  </si>
+  <si>
+    <t>0.05670571</t>
+  </si>
+  <si>
+    <t>0.075664409</t>
+  </si>
+  <si>
+    <t>0.075966749</t>
+  </si>
+  <si>
+    <t>0.027780967</t>
+  </si>
+  <si>
+    <t>0.068796674</t>
+  </si>
+  <si>
+    <t>0.028872068</t>
+  </si>
+  <si>
+    <t>0.041485254</t>
+  </si>
+  <si>
+    <t>0.054530993</t>
+  </si>
+  <si>
+    <t>0.050487167</t>
+  </si>
+  <si>
+    <t>0.013768919</t>
+  </si>
+  <si>
+    <t>0.013703639</t>
+  </si>
+  <si>
+    <t>0.06176378</t>
+  </si>
+  <si>
+    <t>0.039615881</t>
+  </si>
+  <si>
+    <t>0.026578446</t>
+  </si>
+  <si>
+    <t>0.034178853</t>
+  </si>
+  <si>
+    <t>0.010332168</t>
+  </si>
+  <si>
+    <t>0.03604791</t>
+  </si>
+  <si>
+    <t>0.114115787</t>
+  </si>
+  <si>
+    <t>0.099807037</t>
+  </si>
+  <si>
+    <t>0.023574595</t>
+  </si>
+  <si>
+    <t>0.01771858</t>
+  </si>
+  <si>
+    <t>0.016496107</t>
+  </si>
+  <si>
+    <t>0.582804221</t>
+  </si>
+  <si>
+    <t>0.015498829</t>
+  </si>
+  <si>
+    <t>0.642041263</t>
+  </si>
+  <si>
+    <t>0.044034516</t>
+  </si>
+  <si>
+    <t>0.407897279</t>
+  </si>
+  <si>
+    <t>0.038334515</t>
+  </si>
+  <si>
+    <t>0.586962111</t>
+  </si>
+  <si>
+    <t>0.435254329</t>
+  </si>
+  <si>
+    <t>0.03945489</t>
+  </si>
+  <si>
+    <t>0.159763271</t>
+  </si>
+  <si>
+    <t>0.022688502</t>
+  </si>
+  <si>
+    <t>0.537887462</t>
+  </si>
+  <si>
+    <t>0.690435273</t>
+  </si>
+  <si>
+    <t>0.522199372</t>
+  </si>
+  <si>
+    <t>0.031169818</t>
+  </si>
+  <si>
+    <t>0.521167783</t>
+  </si>
+  <si>
+    <t>0.103567861</t>
+  </si>
+  <si>
+    <t>0.071756681</t>
+  </si>
+  <si>
+    <t>0.027341273</t>
+  </si>
+  <si>
+    <t>0.076263161</t>
+  </si>
+  <si>
+    <t>0.052392733</t>
+  </si>
+  <si>
+    <t>0.016840426</t>
+  </si>
+  <si>
+    <t>0.010235918</t>
+  </si>
+  <si>
+    <t>0.069048511</t>
+  </si>
+  <si>
+    <t>0.026763245</t>
+  </si>
+  <si>
+    <t>0.452643743</t>
+  </si>
+  <si>
+    <t>0.507566071</t>
+  </si>
+  <si>
+    <t>0.470203452</t>
+  </si>
+  <si>
+    <t>0.552161478</t>
+  </si>
+  <si>
+    <t>0.951597272</t>
+  </si>
+  <si>
+    <t>0.684587593</t>
+  </si>
+  <si>
+    <t>0.053550574</t>
+  </si>
+  <si>
+    <t>0.057944659</t>
+  </si>
+  <si>
+    <t>0.593328468</t>
+  </si>
+  <si>
+    <t>0.581778399</t>
+  </si>
+  <si>
+    <t>0.599856785</t>
+  </si>
+  <si>
+    <t>0.021457516</t>
+  </si>
+  <si>
+    <t>0.563865172</t>
+  </si>
+  <si>
+    <t>0.41133403</t>
+  </si>
+  <si>
+    <t>0.606057984</t>
+  </si>
+  <si>
+    <t>0.581271255</t>
+  </si>
+  <si>
+    <t>0.607956002</t>
+  </si>
+  <si>
+    <t>0.056603063</t>
+  </si>
+  <si>
+    <t>0.405831535</t>
+  </si>
+  <si>
+    <t>0.59727813</t>
+  </si>
+  <si>
+    <t>0.035383014</t>
+  </si>
+  <si>
+    <t>0.86965373</t>
+  </si>
+  <si>
+    <t>0.039622449</t>
+  </si>
+  <si>
+    <t>0.010064274</t>
+  </si>
+  <si>
+    <t>0.724876621</t>
+  </si>
+  <si>
+    <t>0.028303364</t>
+  </si>
+  <si>
+    <t>0.924413678</t>
+  </si>
+  <si>
+    <t>0.934938117</t>
+  </si>
+  <si>
+    <t>0.016597096</t>
+  </si>
+  <si>
+    <t>0.882736765</t>
+  </si>
+  <si>
+    <t>0.037246747</t>
+  </si>
+  <si>
+    <t>0.040032417</t>
+  </si>
+  <si>
+    <t>0.043105381</t>
+  </si>
+  <si>
+    <t>0.041288881</t>
+  </si>
+  <si>
+    <t>0.867083409</t>
+  </si>
+  <si>
+    <t>0.931240852</t>
+  </si>
+  <si>
+    <t>0.927657615</t>
+  </si>
+  <si>
+    <t>0.933019572</t>
+  </si>
+  <si>
+    <t>0.019358212</t>
+  </si>
+  <si>
+    <t>0.023432218</t>
+  </si>
+  <si>
+    <t>0.082125081</t>
+  </si>
+  <si>
+    <t>0.941887437</t>
+  </si>
+  <si>
+    <t>0.03662211</t>
+  </si>
+  <si>
+    <t>0.041231909</t>
+  </si>
+  <si>
+    <t>0.102078189</t>
+  </si>
+  <si>
+    <t>0.030370993</t>
+  </si>
+  <si>
+    <t>0.036821419</t>
+  </si>
+  <si>
+    <t>0.941123079</t>
+  </si>
+  <si>
+    <t>0.034620114</t>
+  </si>
+  <si>
+    <t>0.037109928</t>
+  </si>
+  <si>
+    <t>0.943320616</t>
   </si>
 </sst>
 </file>
@@ -2508,7 +2820,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2563,8 +2878,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" headers="0" connectionId="2" xr16:uid="{25C7FC8E-7352-4C39-AE0B-39D3688A0D23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh headersInLastRefresh="0" nextId="15" unboundColumnsRight="1">
-    <queryTableFields count="13">
+  <queryTableRefresh headersInLastRefresh="0" nextId="16" unboundColumnsRight="2">
+    <queryTableFields count="14">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
@@ -2578,27 +2893,29 @@
       <queryTableField id="11" name="Column11" tableColumnId="11"/>
       <queryTableField id="12" name="Column12" tableColumnId="12"/>
       <queryTableField id="14" dataBound="0" tableColumnId="14"/>
+      <queryTableField id="15" dataBound="0" tableColumnId="13"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{192FF086-323A-47CF-9DB2-91F8B55B34CB}" name="iris_test_106__2" displayName="iris_test_106__2" ref="A1:M107" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{92640B4D-867D-41A9-B034-FE7E1D8DD3C3}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{86FAF774-7019-40E6-BEA1-FEDC4654AD9F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{370CF6D6-9613-4E26-93D2-5CAE77CA061E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{98EFDF02-519C-4CA7-8030-C3537D601988}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{C959703C-5776-4F3D-B7DB-D9EB14AA4B5A}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{173F627B-E569-4E38-BE36-D54AE3FE9538}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{192CE918-7F87-49E8-934E-FA91B1234E70}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{6585DB6B-C947-41B9-9770-91F5C1EB3D87}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{37492F72-FFC2-4814-AEBE-E6CD5B440B2E}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{50D9452A-5F7D-46A1-8039-D1D93C37BBF0}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{E33D7BE5-5BDD-4C2A-94E9-F1FCD3CCE6F9}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{E529E567-4D2E-46FB-AFF1-C60388FA7347}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{1C1BDAA9-CD38-4E2B-B111-7C11688918CA}" uniqueName="14" name="Coluna1" queryTableFieldId="14" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{192FF086-323A-47CF-9DB2-91F8B55B34CB}" name="iris_test_106__2" displayName="iris_test_106__2" ref="A1:N107" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{92640B4D-867D-41A9-B034-FE7E1D8DD3C3}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{86FAF774-7019-40E6-BEA1-FEDC4654AD9F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{370CF6D6-9613-4E26-93D2-5CAE77CA061E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{98EFDF02-519C-4CA7-8030-C3537D601988}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{C959703C-5776-4F3D-B7DB-D9EB14AA4B5A}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{173F627B-E569-4E38-BE36-D54AE3FE9538}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{192CE918-7F87-49E8-934E-FA91B1234E70}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{6585DB6B-C947-41B9-9770-91F5C1EB3D87}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{37492F72-FFC2-4814-AEBE-E6CD5B440B2E}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{50D9452A-5F7D-46A1-8039-D1D93C37BBF0}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{E33D7BE5-5BDD-4C2A-94E9-F1FCD3CCE6F9}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{E529E567-4D2E-46FB-AFF1-C60388FA7347}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{1C1BDAA9-CD38-4E2B-B111-7C11688918CA}" uniqueName="14" name="Coluna1" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{A2E028F6-DD76-437F-BF53-3F2D367C1A05}" uniqueName="13" name="Coluna2" queryTableFieldId="15" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2901,10 +3218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E220050A-C95F-45F7-88A9-C605932CD7E2}">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O95" sqref="O95"/>
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,9 +3234,10 @@
     <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2959,8 +3277,11 @@
       <c r="M1" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -3000,8 +3321,11 @@
       <c r="M2" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -3041,8 +3365,11 @@
       <c r="M3" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -3082,8 +3409,11 @@
       <c r="M4" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -3123,8 +3453,11 @@
       <c r="M5" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -3164,8 +3497,11 @@
       <c r="M6" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -3205,8 +3541,11 @@
       <c r="M7" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,8 +3585,11 @@
       <c r="M8" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
@@ -3287,8 +3629,11 @@
       <c r="M9" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -3328,8 +3673,11 @@
       <c r="M10" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -3369,8 +3717,11 @@
       <c r="M11" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -3410,8 +3761,11 @@
       <c r="M12" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>102</v>
       </c>
@@ -3451,8 +3805,11 @@
       <c r="M13" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
@@ -3492,8 +3849,11 @@
       <c r="M14" s="1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
@@ -3533,8 +3893,11 @@
       <c r="M15" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
@@ -3574,8 +3937,11 @@
       <c r="M16" s="1" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>128</v>
       </c>
@@ -3615,8 +3981,11 @@
       <c r="M17" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>134</v>
       </c>
@@ -3656,8 +4025,11 @@
       <c r="M18" s="1" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -3697,8 +4069,11 @@
       <c r="M19" s="1" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>148</v>
       </c>
@@ -3738,8 +4113,11 @@
       <c r="M20" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -3779,8 +4157,11 @@
       <c r="M21" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>162</v>
       </c>
@@ -3820,8 +4201,11 @@
       <c r="M22" s="1" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
@@ -3861,8 +4245,11 @@
       <c r="M23" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>174</v>
       </c>
@@ -3902,8 +4289,11 @@
       <c r="M24" s="1" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>182</v>
       </c>
@@ -3943,8 +4333,11 @@
       <c r="M25" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>189</v>
       </c>
@@ -3984,8 +4377,11 @@
       <c r="M26" s="1" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>195</v>
       </c>
@@ -4025,8 +4421,11 @@
       <c r="M27" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>202</v>
       </c>
@@ -4066,8 +4465,11 @@
       <c r="M28" s="1" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>211</v>
       </c>
@@ -4107,8 +4509,11 @@
       <c r="M29" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>218</v>
       </c>
@@ -4148,8 +4553,11 @@
       <c r="M30" s="1" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>226</v>
       </c>
@@ -4189,8 +4597,11 @@
       <c r="M31" s="1" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>232</v>
       </c>
@@ -4230,8 +4641,11 @@
       <c r="M32" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>241</v>
       </c>
@@ -4271,8 +4685,11 @@
       <c r="M33" s="1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>249</v>
       </c>
@@ -4312,8 +4729,11 @@
       <c r="M34" s="1" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>257</v>
       </c>
@@ -4353,8 +4773,11 @@
       <c r="M35" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>264</v>
       </c>
@@ -4394,8 +4817,11 @@
       <c r="M36" s="1" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>271</v>
       </c>
@@ -4435,8 +4861,11 @@
       <c r="M37" s="1" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>279</v>
       </c>
@@ -4476,8 +4905,11 @@
       <c r="M38" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>287</v>
       </c>
@@ -4517,8 +4949,11 @@
       <c r="M39" s="1" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>294</v>
       </c>
@@ -4558,8 +4993,11 @@
       <c r="M40" s="1" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>301</v>
       </c>
@@ -4599,8 +5037,11 @@
       <c r="M41" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>307</v>
       </c>
@@ -4640,8 +5081,11 @@
       <c r="M42" s="1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>313</v>
       </c>
@@ -4681,8 +5125,11 @@
       <c r="M43" s="1" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>320</v>
       </c>
@@ -4722,8 +5169,11 @@
       <c r="M44" s="1" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>328</v>
       </c>
@@ -4763,8 +5213,11 @@
       <c r="M45" s="1" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>336</v>
       </c>
@@ -4804,8 +5257,11 @@
       <c r="M46" s="1" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>342</v>
       </c>
@@ -4845,8 +5301,11 @@
       <c r="M47" s="1" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>348</v>
       </c>
@@ -4886,8 +5345,11 @@
       <c r="M48" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>354</v>
       </c>
@@ -4927,8 +5389,11 @@
       <c r="M49" s="1" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>360</v>
       </c>
@@ -4968,8 +5433,11 @@
       <c r="M50" s="1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>366</v>
       </c>
@@ -5009,8 +5477,11 @@
       <c r="M51" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>372</v>
       </c>
@@ -5050,8 +5521,11 @@
       <c r="M52" s="1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>379</v>
       </c>
@@ -5091,8 +5565,11 @@
       <c r="M53" s="1" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>384</v>
       </c>
@@ -5132,8 +5609,11 @@
       <c r="M54" s="1" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>391</v>
       </c>
@@ -5173,8 +5653,11 @@
       <c r="M55" s="1" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>397</v>
       </c>
@@ -5214,8 +5697,11 @@
       <c r="M56" s="1" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>403</v>
       </c>
@@ -5255,8 +5741,11 @@
       <c r="M57" s="1" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>409</v>
       </c>
@@ -5296,8 +5785,11 @@
       <c r="M58" s="1" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>415</v>
       </c>
@@ -5337,8 +5829,11 @@
       <c r="M59" s="1" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>421</v>
       </c>
@@ -5378,8 +5873,11 @@
       <c r="M60" s="1" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>427</v>
       </c>
@@ -5419,8 +5917,11 @@
       <c r="M61" s="1" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>433</v>
       </c>
@@ -5460,8 +5961,11 @@
       <c r="M62" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>439</v>
       </c>
@@ -5501,8 +6005,11 @@
       <c r="M63" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>445</v>
       </c>
@@ -5542,8 +6049,11 @@
       <c r="M64" s="1" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>451</v>
       </c>
@@ -5583,8 +6093,11 @@
       <c r="M65" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>457</v>
       </c>
@@ -5624,8 +6137,11 @@
       <c r="M66" s="1" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>463</v>
       </c>
@@ -5665,8 +6181,11 @@
       <c r="M67" s="1" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>469</v>
       </c>
@@ -5706,8 +6225,11 @@
       <c r="M68" s="1" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>475</v>
       </c>
@@ -5747,8 +6269,11 @@
       <c r="M69" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>481</v>
       </c>
@@ -5788,8 +6313,11 @@
       <c r="M70" s="1" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>487</v>
       </c>
@@ -5829,8 +6357,11 @@
       <c r="M71" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>493</v>
       </c>
@@ -5870,8 +6401,11 @@
       <c r="M72" s="1" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>499</v>
       </c>
@@ -5911,8 +6445,11 @@
       <c r="M73" s="1" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>505</v>
       </c>
@@ -5952,8 +6489,11 @@
       <c r="M74" s="1" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>510</v>
       </c>
@@ -5993,8 +6533,11 @@
       <c r="M75" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>516</v>
       </c>
@@ -6034,8 +6577,11 @@
       <c r="M76" s="1" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>522</v>
       </c>
@@ -6075,8 +6621,11 @@
       <c r="M77" s="1" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>528</v>
       </c>
@@ -6116,8 +6665,11 @@
       <c r="M78" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>534</v>
       </c>
@@ -6157,8 +6709,11 @@
       <c r="M79" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>540</v>
       </c>
@@ -6198,8 +6753,11 @@
       <c r="M80" s="1" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>546</v>
       </c>
@@ -6239,8 +6797,11 @@
       <c r="M81" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>552</v>
       </c>
@@ -6280,8 +6841,11 @@
       <c r="M82" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>559</v>
       </c>
@@ -6321,8 +6885,11 @@
       <c r="M83" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>565</v>
       </c>
@@ -6362,8 +6929,11 @@
       <c r="M84" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>571</v>
       </c>
@@ -6403,8 +6973,11 @@
       <c r="M85" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>576</v>
       </c>
@@ -6444,8 +7017,11 @@
       <c r="M86" s="1" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>582</v>
       </c>
@@ -6485,8 +7061,11 @@
       <c r="M87" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>590</v>
       </c>
@@ -6526,8 +7105,11 @@
       <c r="M88" s="1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>596</v>
       </c>
@@ -6567,8 +7149,11 @@
       <c r="M89" s="1" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>602</v>
       </c>
@@ -6608,8 +7193,11 @@
       <c r="M90" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>608</v>
       </c>
@@ -6649,8 +7237,11 @@
       <c r="M91" s="1" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>614</v>
       </c>
@@ -6690,8 +7281,11 @@
       <c r="M92" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>620</v>
       </c>
@@ -6731,8 +7325,11 @@
       <c r="M93" s="1" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>626</v>
       </c>
@@ -6772,8 +7369,11 @@
       <c r="M94" s="1" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>632</v>
       </c>
@@ -6813,8 +7413,11 @@
       <c r="M95" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>637</v>
       </c>
@@ -6854,8 +7457,11 @@
       <c r="M96" s="1" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>643</v>
       </c>
@@ -6895,8 +7501,11 @@
       <c r="M97" s="1" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>649</v>
       </c>
@@ -6936,8 +7545,11 @@
       <c r="M98" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>654</v>
       </c>
@@ -6977,8 +7589,11 @@
       <c r="M99" s="1" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>660</v>
       </c>
@@ -7018,8 +7633,11 @@
       <c r="M100" s="1" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>666</v>
       </c>
@@ -7059,8 +7677,11 @@
       <c r="M101" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>672</v>
       </c>
@@ -7100,8 +7721,11 @@
       <c r="M102" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>673</v>
       </c>
@@ -7141,8 +7765,11 @@
       <c r="M103" s="1" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>678</v>
       </c>
@@ -7182,8 +7809,11 @@
       <c r="M104" s="1" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>684</v>
       </c>
@@ -7223,8 +7853,11 @@
       <c r="M105" s="1" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>689</v>
       </c>
@@ -7264,8 +7897,11 @@
       <c r="M106" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>695</v>
       </c>
@@ -7304,6 +7940,9 @@
       </c>
       <c r="M107" s="1" t="s">
         <v>806</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>910</v>
       </c>
     </row>
   </sheetData>

--- a/iris-test-106.xlsx
+++ b/iris-test-106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\GIT REPOS\MyFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1108B48-37A2-4A5A-AE6F-E1D35FC33CE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB2D4C4-0B6A-4765-90BC-DDAFCD38912E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11565" xr2:uid="{10D0F3C7-D4BE-4974-BA33-F43865671231}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="910">
   <si>
     <t>rownum</t>
   </si>
@@ -2471,313 +2471,310 @@
     <t>scores_integration</t>
   </si>
   <si>
-    <t>0.01129271</t>
-  </si>
-  <si>
-    <t>0.008881781</t>
-  </si>
-  <si>
-    <t>0.086709901</t>
-  </si>
-  <si>
-    <t>0.007408328</t>
-  </si>
-  <si>
-    <t>0.02064242</t>
-  </si>
-  <si>
-    <t>0.05670571</t>
-  </si>
-  <si>
-    <t>0.075664409</t>
-  </si>
-  <si>
-    <t>0.075966749</t>
-  </si>
-  <si>
-    <t>0.027780967</t>
-  </si>
-  <si>
-    <t>0.068796674</t>
-  </si>
-  <si>
-    <t>0.028872068</t>
-  </si>
-  <si>
-    <t>0.041485254</t>
-  </si>
-  <si>
-    <t>0.054530993</t>
-  </si>
-  <si>
-    <t>0.050487167</t>
-  </si>
-  <si>
-    <t>0.013768919</t>
-  </si>
-  <si>
-    <t>0.013703639</t>
-  </si>
-  <si>
-    <t>0.06176378</t>
-  </si>
-  <si>
-    <t>0.039615881</t>
-  </si>
-  <si>
-    <t>0.026578446</t>
-  </si>
-  <si>
-    <t>0.034178853</t>
-  </si>
-  <si>
-    <t>0.010332168</t>
-  </si>
-  <si>
-    <t>0.03604791</t>
-  </si>
-  <si>
-    <t>0.114115787</t>
-  </si>
-  <si>
-    <t>0.099807037</t>
-  </si>
-  <si>
-    <t>0.023574595</t>
-  </si>
-  <si>
-    <t>0.01771858</t>
-  </si>
-  <si>
-    <t>0.016496107</t>
-  </si>
-  <si>
-    <t>0.582804221</t>
-  </si>
-  <si>
-    <t>0.015498829</t>
-  </si>
-  <si>
-    <t>0.642041263</t>
-  </si>
-  <si>
-    <t>0.044034516</t>
-  </si>
-  <si>
-    <t>0.407897279</t>
-  </si>
-  <si>
-    <t>0.038334515</t>
-  </si>
-  <si>
-    <t>0.586962111</t>
-  </si>
-  <si>
-    <t>0.435254329</t>
-  </si>
-  <si>
-    <t>0.03945489</t>
-  </si>
-  <si>
-    <t>0.159763271</t>
-  </si>
-  <si>
-    <t>0.022688502</t>
-  </si>
-  <si>
-    <t>0.537887462</t>
-  </si>
-  <si>
-    <t>0.690435273</t>
-  </si>
-  <si>
-    <t>0.522199372</t>
-  </si>
-  <si>
-    <t>0.031169818</t>
-  </si>
-  <si>
-    <t>0.521167783</t>
-  </si>
-  <si>
-    <t>0.103567861</t>
-  </si>
-  <si>
-    <t>0.071756681</t>
-  </si>
-  <si>
-    <t>0.027341273</t>
-  </si>
-  <si>
-    <t>0.076263161</t>
-  </si>
-  <si>
-    <t>0.052392733</t>
-  </si>
-  <si>
-    <t>0.016840426</t>
-  </si>
-  <si>
-    <t>0.010235918</t>
-  </si>
-  <si>
-    <t>0.069048511</t>
-  </si>
-  <si>
-    <t>0.026763245</t>
-  </si>
-  <si>
-    <t>0.452643743</t>
-  </si>
-  <si>
-    <t>0.507566071</t>
-  </si>
-  <si>
-    <t>0.470203452</t>
-  </si>
-  <si>
-    <t>0.552161478</t>
-  </si>
-  <si>
-    <t>0.951597272</t>
-  </si>
-  <si>
-    <t>0.684587593</t>
-  </si>
-  <si>
-    <t>0.053550574</t>
-  </si>
-  <si>
-    <t>0.057944659</t>
-  </si>
-  <si>
-    <t>0.593328468</t>
-  </si>
-  <si>
-    <t>0.581778399</t>
-  </si>
-  <si>
-    <t>0.599856785</t>
-  </si>
-  <si>
-    <t>0.021457516</t>
-  </si>
-  <si>
-    <t>0.563865172</t>
-  </si>
-  <si>
-    <t>0.41133403</t>
-  </si>
-  <si>
-    <t>0.606057984</t>
-  </si>
-  <si>
-    <t>0.581271255</t>
-  </si>
-  <si>
-    <t>0.607956002</t>
-  </si>
-  <si>
-    <t>0.056603063</t>
-  </si>
-  <si>
-    <t>0.405831535</t>
-  </si>
-  <si>
-    <t>0.59727813</t>
-  </si>
-  <si>
-    <t>0.035383014</t>
-  </si>
-  <si>
-    <t>0.86965373</t>
-  </si>
-  <si>
-    <t>0.039622449</t>
-  </si>
-  <si>
-    <t>0.010064274</t>
-  </si>
-  <si>
-    <t>0.724876621</t>
-  </si>
-  <si>
-    <t>0.028303364</t>
-  </si>
-  <si>
-    <t>0.924413678</t>
-  </si>
-  <si>
-    <t>0.934938117</t>
-  </si>
-  <si>
-    <t>0.016597096</t>
-  </si>
-  <si>
-    <t>0.882736765</t>
-  </si>
-  <si>
-    <t>0.037246747</t>
-  </si>
-  <si>
-    <t>0.040032417</t>
-  </si>
-  <si>
-    <t>0.043105381</t>
-  </si>
-  <si>
-    <t>0.041288881</t>
-  </si>
-  <si>
-    <t>0.867083409</t>
-  </si>
-  <si>
-    <t>0.931240852</t>
-  </si>
-  <si>
-    <t>0.927657615</t>
-  </si>
-  <si>
-    <t>0.933019572</t>
-  </si>
-  <si>
-    <t>0.019358212</t>
-  </si>
-  <si>
-    <t>0.023432218</t>
-  </si>
-  <si>
-    <t>0.082125081</t>
-  </si>
-  <si>
-    <t>0.941887437</t>
-  </si>
-  <si>
-    <t>0.03662211</t>
-  </si>
-  <si>
-    <t>0.041231909</t>
-  </si>
-  <si>
-    <t>0.102078189</t>
-  </si>
-  <si>
-    <t>0.030370993</t>
-  </si>
-  <si>
-    <t>0.036821419</t>
-  </si>
-  <si>
-    <t>0.941123079</t>
-  </si>
-  <si>
-    <t>0.034620114</t>
-  </si>
-  <si>
-    <t>0.037109928</t>
-  </si>
-  <si>
-    <t>0.943320616</t>
+    <t>0.003913374</t>
+  </si>
+  <si>
+    <t>0.00148445</t>
+  </si>
+  <si>
+    <t>0.079893451</t>
+  </si>
+  <si>
+    <t>0.013332867</t>
+  </si>
+  <si>
+    <t>0.04966532</t>
+  </si>
+  <si>
+    <t>0.068765519</t>
+  </si>
+  <si>
+    <t>0.069070116</t>
+  </si>
+  <si>
+    <t>0.020524693</t>
+  </si>
+  <si>
+    <t>0.061846526</t>
+  </si>
+  <si>
+    <t>0.021623938</t>
+  </si>
+  <si>
+    <t>0.034331263</t>
+  </si>
+  <si>
+    <t>0.047474371</t>
+  </si>
+  <si>
+    <t>0.043400363</t>
+  </si>
+  <si>
+    <t>0.006408064</t>
+  </si>
+  <si>
+    <t>0.006342297</t>
+  </si>
+  <si>
+    <t>0.054761141</t>
+  </si>
+  <si>
+    <t>0.032447939</t>
+  </si>
+  <si>
+    <t>0.019313197</t>
+  </si>
+  <si>
+    <t>0.02697033</t>
+  </si>
+  <si>
+    <t>0.002945662</t>
+  </si>
+  <si>
+    <t>0.028853337</t>
+  </si>
+  <si>
+    <t>0.107503883</t>
+  </si>
+  <si>
+    <t>0.093088338</t>
+  </si>
+  <si>
+    <t>0.016286926</t>
+  </si>
+  <si>
+    <t>0.010387204</t>
+  </si>
+  <si>
+    <t>0.009155606</t>
+  </si>
+  <si>
+    <t>0.57969043</t>
+  </si>
+  <si>
+    <t>0.008150886</t>
+  </si>
+  <si>
+    <t>0.639369594</t>
+  </si>
+  <si>
+    <t>0.036899552</t>
+  </si>
+  <si>
+    <t>0.403478049</t>
+  </si>
+  <si>
+    <t>0.031157008</t>
+  </si>
+  <si>
+    <t>0.583879352</t>
+  </si>
+  <si>
+    <t>0.431039282</t>
+  </si>
+  <si>
+    <t>0.032285746</t>
+  </si>
+  <si>
+    <t>0.153492063</t>
+  </si>
+  <si>
+    <t>0.01539422</t>
+  </si>
+  <si>
+    <t>0.53443843</t>
+  </si>
+  <si>
+    <t>0.6881248</t>
+  </si>
+  <si>
+    <t>0.518633249</t>
+  </si>
+  <si>
+    <t>0.023938837</t>
+  </si>
+  <si>
+    <t>0.517593961</t>
+  </si>
+  <si>
+    <t>0.096877231</t>
+  </si>
+  <si>
+    <t>0.064828625</t>
+  </si>
+  <si>
+    <t>0.020081717</t>
+  </si>
+  <si>
+    <t>0.069368739</t>
+  </si>
+  <si>
+    <t>0.045320152</t>
+  </si>
+  <si>
+    <t>0.009502496</t>
+  </si>
+  <si>
+    <t>0.002848694</t>
+  </si>
+  <si>
+    <t>0.062100242</t>
+  </si>
+  <si>
+    <t>0.019499375</t>
+  </si>
+  <si>
+    <t>0.448558484</t>
+  </si>
+  <si>
+    <t>0.503890731</t>
+  </si>
+  <si>
+    <t>0.466249251</t>
+  </si>
+  <si>
+    <t>0.548818981</t>
+  </si>
+  <si>
+    <t>0.968132032</t>
+  </si>
+  <si>
+    <t>0.682233475</t>
+  </si>
+  <si>
+    <t>0.046486634</t>
+  </si>
+  <si>
+    <t>0.050913516</t>
+  </si>
+  <si>
+    <t>0.590293226</t>
+  </si>
+  <si>
+    <t>0.578656952</t>
+  </si>
+  <si>
+    <t>0.596870268</t>
+  </si>
+  <si>
+    <t>0.014154046</t>
+  </si>
+  <si>
+    <t>0.560610027</t>
+  </si>
+  <si>
+    <t>0.406940451</t>
+  </si>
+  <si>
+    <t>0.60311775</t>
+  </si>
+  <si>
+    <t>0.578146022</t>
+  </si>
+  <si>
+    <t>0.605029934</t>
+  </si>
+  <si>
+    <t>0.049561906</t>
+  </si>
+  <si>
+    <t>0.401396886</t>
+  </si>
+  <si>
+    <t>0.594272366</t>
+  </si>
+  <si>
+    <t>0.028183479</t>
+  </si>
+  <si>
+    <t>0.868680875</t>
+  </si>
+  <si>
+    <t>0.032454555</t>
+  </si>
+  <si>
+    <t>0.002675769</t>
+  </si>
+  <si>
+    <t>0.722823204</t>
+  </si>
+  <si>
+    <t>0.021050989</t>
+  </si>
+  <si>
+    <t>0.940476101</t>
+  </si>
+  <si>
+    <t>0.951183411</t>
+  </si>
+  <si>
+    <t>0.00925735</t>
+  </si>
+  <si>
+    <t>0.881861557</t>
+  </si>
+  <si>
+    <t>0.030061122</t>
+  </si>
+  <si>
+    <t>0.032867583</t>
+  </si>
+  <si>
+    <t>0.035963483</t>
+  </si>
+  <si>
+    <t>0.034133425</t>
+  </si>
+  <si>
+    <t>0.86609137</t>
+  </si>
+  <si>
+    <t>0.947421902</t>
+  </si>
+  <si>
+    <t>0.943776403</t>
+  </si>
+  <si>
+    <t>0.949231529</t>
+  </si>
+  <si>
+    <t>0.012039074</t>
+  </si>
+  <si>
+    <t>0.016143486</t>
+  </si>
+  <si>
+    <t>0.075274411</t>
+  </si>
+  <si>
+    <t>0.958253481</t>
+  </si>
+  <si>
+    <t>0.029431823</t>
+  </si>
+  <si>
+    <t>0.034076028</t>
+  </si>
+  <si>
+    <t>0.095376441</t>
+  </si>
+  <si>
+    <t>0.02313405</t>
+  </si>
+  <si>
+    <t>0.029632619</t>
+  </si>
+  <si>
+    <t>0.957475841</t>
+  </si>
+  <si>
+    <t>0.027414885</t>
+  </si>
+  <si>
+    <t>0.029923281</t>
+  </si>
+  <si>
+    <t>0.959711561</t>
   </si>
 </sst>
 </file>
@@ -3221,7 +3218,7 @@
   <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P75" sqref="P75"/>
+      <selection activeCell="N2" sqref="N2:N107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,8 +3450,8 @@
       <c r="M5" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>811</v>
+      <c r="N5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3498,7 +3495,7 @@
         <v>706</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3542,7 +3539,7 @@
         <v>707</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3586,7 +3583,7 @@
         <v>708</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -3630,7 +3627,7 @@
         <v>709</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3674,7 +3671,7 @@
         <v>710</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3718,7 +3715,7 @@
         <v>711</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3762,7 +3759,7 @@
         <v>712</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3806,7 +3803,7 @@
         <v>713</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3850,7 +3847,7 @@
         <v>714</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3894,7 +3891,7 @@
         <v>715</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3938,7 +3935,7 @@
         <v>716</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3982,7 +3979,7 @@
         <v>717</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -4026,7 +4023,7 @@
         <v>718</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -4070,7 +4067,7 @@
         <v>719</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -4114,7 +4111,7 @@
         <v>720</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -4158,7 +4155,7 @@
         <v>721</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -4202,7 +4199,7 @@
         <v>722</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -4246,7 +4243,7 @@
         <v>723</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -4290,7 +4287,7 @@
         <v>724</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -4334,7 +4331,7 @@
         <v>725</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -4378,7 +4375,7 @@
         <v>726</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -4422,7 +4419,7 @@
         <v>727</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -4466,7 +4463,7 @@
         <v>728</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -4510,7 +4507,7 @@
         <v>729</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -4554,7 +4551,7 @@
         <v>730</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -4598,7 +4595,7 @@
         <v>731</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -4642,7 +4639,7 @@
         <v>732</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -4686,7 +4683,7 @@
         <v>733</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -4730,7 +4727,7 @@
         <v>734</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -4774,7 +4771,7 @@
         <v>735</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -4818,7 +4815,7 @@
         <v>736</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -4862,7 +4859,7 @@
         <v>737</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -4906,7 +4903,7 @@
         <v>738</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -4950,7 +4947,7 @@
         <v>739</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4994,7 +4991,7 @@
         <v>740</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -5038,7 +5035,7 @@
         <v>741</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -5082,7 +5079,7 @@
         <v>742</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -5126,7 +5123,7 @@
         <v>743</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -5170,7 +5167,7 @@
         <v>744</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -5214,7 +5211,7 @@
         <v>745</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -5258,7 +5255,7 @@
         <v>746</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -5302,7 +5299,7 @@
         <v>747</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -5346,7 +5343,7 @@
         <v>748</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -5390,7 +5387,7 @@
         <v>749</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -5434,7 +5431,7 @@
         <v>750</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -5478,7 +5475,7 @@
         <v>751</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -5522,7 +5519,7 @@
         <v>752</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -5566,7 +5563,7 @@
         <v>753</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -5610,7 +5607,7 @@
         <v>754</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -5654,7 +5651,7 @@
         <v>755</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -5698,7 +5695,7 @@
         <v>756</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -5742,7 +5739,7 @@
         <v>757</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -5786,7 +5783,7 @@
         <v>758</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -5830,7 +5827,7 @@
         <v>759</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -5874,7 +5871,7 @@
         <v>760</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -5918,7 +5915,7 @@
         <v>761</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -5962,7 +5959,7 @@
         <v>762</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -6006,7 +6003,7 @@
         <v>763</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -6050,7 +6047,7 @@
         <v>764</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -6094,7 +6091,7 @@
         <v>765</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -6138,7 +6135,7 @@
         <v>766</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -6182,7 +6179,7 @@
         <v>767</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -6226,7 +6223,7 @@
         <v>768</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -6270,7 +6267,7 @@
         <v>769</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -6314,7 +6311,7 @@
         <v>770</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -6358,7 +6355,7 @@
         <v>771</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -6402,7 +6399,7 @@
         <v>772</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -6446,7 +6443,7 @@
         <v>773</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -6490,7 +6487,7 @@
         <v>774</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -6534,7 +6531,7 @@
         <v>775</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -6578,7 +6575,7 @@
         <v>776</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -6622,7 +6619,7 @@
         <v>777</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -6666,7 +6663,7 @@
         <v>778</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -6710,7 +6707,7 @@
         <v>779</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -6754,7 +6751,7 @@
         <v>780</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -6798,7 +6795,7 @@
         <v>781</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -6842,7 +6839,7 @@
         <v>782</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -6886,7 +6883,7 @@
         <v>783</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -6974,7 +6971,7 @@
         <v>785</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -7018,7 +7015,7 @@
         <v>786</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -7062,7 +7059,7 @@
         <v>787</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -7106,7 +7103,7 @@
         <v>788</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -7150,7 +7147,7 @@
         <v>789</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -7194,7 +7191,7 @@
         <v>790</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -7238,7 +7235,7 @@
         <v>791</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -7282,7 +7279,7 @@
         <v>792</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -7326,7 +7323,7 @@
         <v>793</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -7370,7 +7367,7 @@
         <v>794</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -7414,7 +7411,7 @@
         <v>795</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -7458,7 +7455,7 @@
         <v>796</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -7502,7 +7499,7 @@
         <v>797</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -7546,7 +7543,7 @@
         <v>798</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -7590,7 +7587,7 @@
         <v>799</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -7634,7 +7631,7 @@
         <v>800</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -7678,7 +7675,7 @@
         <v>801</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -7722,7 +7719,7 @@
         <v>775</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -7766,7 +7763,7 @@
         <v>802</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -7810,7 +7807,7 @@
         <v>803</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -7854,7 +7851,7 @@
         <v>804</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -7898,7 +7895,7 @@
         <v>805</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -7942,7 +7939,7 @@
         <v>806</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
